--- a/Ceasa Hortifruti.xlsx
+++ b/Ceasa Hortifruti.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\gustavo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n3xus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C2A204-B16F-409C-963C-5C9EEA737D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="510" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -120,11 +121,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +133,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -220,23 +242,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -248,19 +271,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -428,9 +452,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -466,7 +490,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -719,7 +742,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-49BF-4C90-B1FB-0C0A46111E68}"/>
             </c:ext>
@@ -785,7 +808,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -863,7 +886,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -975,9 +997,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1020,7 +1042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1280,7 +1301,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9B12-404E-97BB-D9160E10C06D}"/>
             </c:ext>
@@ -1327,7 +1348,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1394,7 +1415,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1514,9 +1534,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1552,7 +1572,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1611,7 +1630,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$68:$B$68</c:f>
+              <c:f>Planilha1!$S$9:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1626,7 +1645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$A$68:$B$68</c:f>
+              <c:f>Planilha1!$S$9:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1639,7 +1658,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-32F1-4002-9550-184558211735}"/>
             </c:ext>
@@ -1706,7 +1725,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -1842,9 +1861,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1880,7 +1899,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1939,7 +1957,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$82:$B$82</c:f>
+              <c:f>Planilha1!$S$40:$T$40</c:f>
               <c:numCache>
                 <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1954,7 +1972,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$A$82:$B$82</c:f>
+              <c:f>Planilha1!$S$40:$T$40</c:f>
               <c:numCache>
                 <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1967,7 +1985,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2164-45D7-88AE-32B417EC2217}"/>
             </c:ext>
@@ -2034,7 +2052,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -4443,13 +4461,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>594631</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -4458,7 +4476,7 @@
         <xdr:cNvPr id="19" name="Gráfico 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE41A3B4-1C5E-9F1E-6121-FDEFA2B9E1F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE41A3B4-1C5E-9F1E-6121-FDEFA2B9E1F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4479,13 +4497,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -4494,10 +4512,10 @@
         <xdr:cNvPr id="20" name="Gráfico 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EF1BBA7-23BE-2552-ED18-F89F3282F533}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF1BBA7-23BE-2552-ED18-F89F3282F533}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AE41A3B4-1C5E-9F1E-6121-FDEFA2B9E1F3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AE41A3B4-1C5E-9F1E-6121-FDEFA2B9E1F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4517,26 +4535,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>167368</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>140153</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="13" name="Gráfico 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C2CEAB7-EAAE-CF92-C347-3BE7522680D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2CEAB7-EAAE-CF92-C347-3BE7522680D9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1EF1BBA7-23BE-2552-ED18-F89F3282F533}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1EF1BBA7-23BE-2552-ED18-F89F3282F533}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4556,26 +4574,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>639537</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>583748</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>649061</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>31297</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>556533</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167369</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Gráfico 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B76D0BA8-683D-9214-CDB8-753A8F3079D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76D0BA8-683D-9214-CDB8-753A8F3079D5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1C2CEAB7-EAAE-CF92-C347-3BE7522680D9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1C2CEAB7-EAAE-CF92-C347-3BE7522680D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4599,24 +4617,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B29" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:B29" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:B29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Hortaliças" dataDxfId="7"/>
-    <tableColumn id="2" name="Preços P/Kg" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Hortaliças" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Preços P/Kg" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A33:B61" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A33:B61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="A33:B61" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A33:B61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Hortaliças" dataDxfId="1"/>
-    <tableColumn id="2" name="Preços P/Kg" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Hortaliças" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Preços P/Kg" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4916,27 +4934,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" customWidth="1"/>
-    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="9.75" customWidth="1"/>
-    <col min="22" max="23" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4944,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4952,7 +4972,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4960,7 +4980,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4968,7 +4988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4976,7 +4996,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4984,31 +5004,49 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="9">
+        <v>2022</v>
+      </c>
+      <c r="T7" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="11">
+        <f>SUM(Tabela1[Preços P/Kg])</f>
+        <v>149.54000000000002</v>
+      </c>
+      <c r="T9" s="12">
+        <f>SUM(Tabela2[Preços P/Kg])</f>
+        <v>162.17000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -5016,7 +5054,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -5024,7 +5062,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -5032,7 +5070,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -5040,7 +5078,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -5048,16 +5086,15 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>2.75</v>
       </c>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -5065,7 +5102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -5073,7 +5110,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -5081,7 +5118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5089,7 +5126,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5097,7 +5134,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -5105,15 +5142,16 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -5121,7 +5159,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -5129,7 +5167,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -5137,7 +5175,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -5145,7 +5183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -5153,7 +5191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -5161,7 +5199,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
@@ -5169,13 +5207,13 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2022</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -5183,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -5191,7 +5229,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -5199,7 +5237,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -5207,7 +5245,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -5215,31 +5253,49 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="2">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="S38" s="9">
+        <v>2022</v>
+      </c>
+      <c r="T38" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="S39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="S40" s="11">
+        <f>AVERAGE(Tabela1[Preços P/Kg])</f>
+        <v>5.3407142857142862</v>
+      </c>
+      <c r="T40" s="12">
+        <f>AVERAGE(Tabela2[Preços P/Kg])</f>
+        <v>5.791785714285715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -5247,7 +5303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -5255,7 +5311,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -5263,7 +5319,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -5271,7 +5327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -5279,7 +5335,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -5287,7 +5343,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -5295,7 +5351,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -5303,7 +5359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -5311,7 +5367,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -5319,7 +5375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -5327,7 +5383,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -5335,7 +5391,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -5343,7 +5399,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -5351,7 +5407,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>25</v>
       </c>
@@ -5359,7 +5415,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>26</v>
       </c>
@@ -5367,7 +5423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>27</v>
       </c>
@@ -5375,7 +5431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
@@ -5383,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
@@ -5391,7 +5447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
@@ -5399,7 +5455,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>31</v>
       </c>
@@ -5407,70 +5463,26 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>2023</v>
       </c>
       <c r="B62" s="6"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
-        <v>2022</v>
-      </c>
-      <c r="B66" s="9">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="12"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="10">
-        <f>SUM(Tabela1[Preços P/Kg])</f>
-        <v>149.54000000000002</v>
-      </c>
-      <c r="B68" s="11">
-        <f>SUM(Tabela2[Preços P/Kg])</f>
-        <v>162.17000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="9">
-        <v>2022</v>
-      </c>
-      <c r="B80" s="9">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="12"/>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="10">
-        <f>AVERAGE(Tabela1[Preços P/Kg])</f>
-        <v>5.3407142857142862</v>
-      </c>
-      <c r="B82" s="11">
-        <f>AVERAGE(Tabela2[Preços P/Kg])</f>
-        <v>5.791785714285715</v>
-      </c>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H83" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S39:T39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
